--- a/FrontStudy.xlsx
+++ b/FrontStudy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeChaeYun\Desktop\Git\JSPLocal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddd095a1e3fa6c8e/Desktop/jspLocal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273AAA5E-55AF-4E41-911D-1F1D928167CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{273AAA5E-55AF-4E41-911D-1F1D928167CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1A11BBB-5053-4064-A577-3FC7D21E4CAC}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="4155" windowWidth="19440" windowHeight="11385" xr2:uid="{398A4277-38D9-496F-8D1A-C5B77BFD2B25}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{398A4277-38D9-496F-8D1A-C5B77BFD2B25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,21 +47,16 @@
     <author>tc={093B413F-3B6C-4939-A9FD-A0881FF9A808}</author>
     <author>tc={41A1055F-F93D-4D98-9249-463639C336FA}</author>
     <author>tc={70A229A7-58A2-43DE-968F-8A03EE35CBE9}</author>
-    <author>이채윤</author>
+    <author>tc={E8C54A16-D8AC-4F7B-9A49-F69F77D1E23C}</author>
+    <author>tc={6FFA4D75-9A03-4AA2-9D0E-400468ACBC71}</author>
+    <author>tc={8FD7E598-064D-4EA3-9C4F-B3CECCB9F8FD}</author>
+    <author>tc={183CC5A9-AEAC-4E35-B825-AA7A4F3B5005}</author>
+    <author>tc={1F4C92F5-647F-4F62-8B0E-019613A2889B}</author>
   </authors>
   <commentList>
     <comment ref="C13" authorId="0" shapeId="0" xr:uid="{F0701F02-CDBA-4469-9664-9FA96948C519}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     visible
@@ -69,21 +64,11 @@
 Scroll
 Auto
 Inherit</t>
-        </r>
       </text>
     </comment>
     <comment ref="C14" authorId="1" shapeId="0" xr:uid="{8F91239F-10D3-4D5B-B807-41B2E5CD9DFC}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     Inline
@@ -103,61 +88,31 @@
 &lt;span&gt;
 &lt;a&gt;
 &lt;img&gt;</t>
-        </r>
       </text>
     </comment>
     <comment ref="C15" authorId="2" shapeId="0" xr:uid="{701D9FE1-CFF3-4213-B027-4BF309A13523}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     Visible
 Hidden
 Collapse</t>
-        </r>
       </text>
     </comment>
     <comment ref="C16" authorId="3" shapeId="0" xr:uid="{09E7E630-8538-41C5-A7E3-298AF248E754}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     Auto
 Number
 Intial</t>
-        </r>
       </text>
     </comment>
     <comment ref="D17" authorId="4" shapeId="0" xr:uid="{DA0F7EBC-711D-40ED-889F-59EFACE091BD}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     = 
@@ -166,21 +121,11 @@
 ^=
 *=
 $=</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B74" authorId="5" shapeId="0" xr:uid="{970C9B8F-90E9-4ED4-B68F-1F67505F85C2}">
+    <comment ref="E57" authorId="5" shapeId="0" xr:uid="{970C9B8F-90E9-4ED4-B68F-1F67505F85C2}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     Action
@@ -189,21 +134,11 @@
 Target
 Enctype
 Accept-charset</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B75" authorId="6" shapeId="0" xr:uid="{67AE2834-9EF9-42C6-B2B4-E401296AA6DC}">
+    <comment ref="E58" authorId="6" shapeId="0" xr:uid="{67AE2834-9EF9-42C6-B2B4-E401296AA6DC}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     Type
@@ -228,79 +163,39 @@
 Button
 Reset
 Submit</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="7" shapeId="0" xr:uid="{382B0446-FAF4-4DE5-926D-431412A6CEC7}">
+    <comment ref="E59" authorId="7" shapeId="0" xr:uid="{382B0446-FAF4-4DE5-926D-431412A6CEC7}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     Name
 Size
 Multiple</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B77" authorId="8" shapeId="0" xr:uid="{093B413F-3B6C-4939-A9FD-A0881FF9A808}">
+    <comment ref="E60" authorId="8" shapeId="0" xr:uid="{093B413F-3B6C-4939-A9FD-A0881FF9A808}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     Value
 Selected
 Disabled</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B78" authorId="9" shapeId="0" xr:uid="{41A1055F-F93D-4D98-9249-463639C336FA}">
+    <comment ref="E61" authorId="9" shapeId="0" xr:uid="{41A1055F-F93D-4D98-9249-463639C336FA}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     Label</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B79" authorId="10" shapeId="0" xr:uid="{70A229A7-58A2-43DE-968F-8A03EE35CBE9}">
+    <comment ref="E62" authorId="10" shapeId="0" xr:uid="{70A229A7-58A2-43DE-968F-8A03EE35CBE9}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     Name
@@ -311,120 +206,52 @@
     Off
 Soft
 Hard</t>
-        </r>
       </text>
     </comment>
-    <comment ref="C89" authorId="11" shapeId="0" xr:uid="{E5A0F95E-0572-47C6-BF9B-459E1F66F4EB}">
+    <comment ref="F73" authorId="11" shapeId="0" xr:uid="{E8C54A16-D8AC-4F7B-9A49-F69F77D1E23C}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이채윤</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-param-name
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    내장 객체가 존재하는 동안 사용할 수 있는 속성의 영역(scope)</t>
+      </text>
+    </comment>
+    <comment ref="G74" authorId="12" shapeId="0" xr:uid="{6FFA4D75-9A03-4AA2-9D0E-400468ACBC71}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    Forward 액션 태그와 구분</t>
+      </text>
+    </comment>
+    <comment ref="C89" authorId="13" shapeId="0" xr:uid="{8FD7E598-064D-4EA3-9C4F-B3CECCB9F8FD}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    param-name
 param-value
 getServletConfig().getInitParameter(ParameterName)</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B98" authorId="11" shapeId="0" xr:uid="{F6A35CFA-AFA8-400D-A012-CB83BBED93A9}">
+    <comment ref="B98" authorId="14" shapeId="0" xr:uid="{183CC5A9-AEAC-4E35-B825-AA7A4F3B5005}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이채윤</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-request.getParameter()
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    request.getParameter()
 enum.hasMoreElements()
 enum.nextElement().toString
-request.isRequestedSessionIdValid()
-</t>
-        </r>
+request.isRequestedSessionIdValid()</t>
       </text>
     </comment>
-    <comment ref="C98" authorId="11" shapeId="0" xr:uid="{63FC54CB-FDFA-4681-8602-999BBBD0734F}">
+    <comment ref="C98" authorId="15" shapeId="0" xr:uid="{1F4C92F5-647F-4F62-8B0E-019613A2889B}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이채윤</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-response.addCookie
-response.getCookies()
-</t>
-        </r>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    response.addCookie(Cookie)
+response.getCookies()</t>
       </text>
     </comment>
   </commentList>
@@ -432,28 +259,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="243">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="287">
   <si>
     <t>attribute</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>virual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sibling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Selector</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -866,10 +677,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>생명 주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>script tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1050,10 +857,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>filter-mapping_attr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>init()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1082,10 +885,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">url-pattern </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>destroy()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1094,10 +893,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>init-param</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>getServletContext()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1403,6 +1198,211 @@
   </si>
   <si>
     <t>trim()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>innerObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성 처리 메서드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 파라미터 관련 메서드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 HTTP 헤더 관련 메서드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 브라우저/서버 관련 메서드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성을 공유할 수 있는 유효 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 이동 관련 메서드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답 콘텐츠 관련 메서드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out 내장 객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setAttribute(String, Object)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getParameter(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getHeader(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getParameterValues(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getHeaders(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getParameterNames(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCharacterEncoding()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getParameterMap()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getIntHeader(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getContentType()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDateHeader(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getContentPath()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getServerPort()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param-name</t>
+  </si>
+  <si>
+    <t>param-value</t>
+  </si>
+  <si>
+    <t>getServletConfig().getInitParameter(ParameterName)</t>
+  </si>
+  <si>
+    <t>sendRedirect(URL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답 HTTP 헤더 관련 메서드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addCookie(Cookie)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addDateHeader(String, long)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addHeader(String, String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addIntHeader(String, int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serDateHeader(String, long)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setHeader(String, String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setIntHeader(String, int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>containsHeader(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;meta&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setContentType(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setCharaterEncoding(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendError(int, String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setStatus(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>println(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newLine()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBufferSize()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getRemaining()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clearBuffer()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flush()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAutoFlush()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1410,7 +1410,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1435,22 +1435,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -1889,7 +1874,7 @@
 *=
 $=</text>
   </threadedComment>
-  <threadedComment ref="B74" dT="2025-06-28T04:04:55.85" personId="{D1D6A3A2-6CE7-4FBF-87EB-8547FDD0351D}" id="{970C9B8F-90E9-4ED4-B68F-1F67505F85C2}">
+  <threadedComment ref="E57" dT="2025-06-28T04:04:55.85" personId="{D1D6A3A2-6CE7-4FBF-87EB-8547FDD0351D}" id="{970C9B8F-90E9-4ED4-B68F-1F67505F85C2}">
     <text>Action
 Method
 Name
@@ -1897,7 +1882,7 @@
 Enctype
 Accept-charset</text>
   </threadedComment>
-  <threadedComment ref="B75" dT="2025-06-28T04:13:33.92" personId="{D1D6A3A2-6CE7-4FBF-87EB-8547FDD0351D}" id="{67AE2834-9EF9-42C6-B2B4-E401296AA6DC}">
+  <threadedComment ref="E58" dT="2025-06-28T04:13:33.92" personId="{D1D6A3A2-6CE7-4FBF-87EB-8547FDD0351D}" id="{67AE2834-9EF9-42C6-B2B4-E401296AA6DC}">
     <text>Type
 Name
 Value
@@ -1911,7 +1896,7 @@
 Placeholder
 Pattern</text>
   </threadedComment>
-  <threadedComment ref="B75" dT="2025-06-28T04:14:12.49" personId="{D1D6A3A2-6CE7-4FBF-87EB-8547FDD0351D}" id="{F3E531A3-E70D-4471-A7E8-64D03FF603CB}" parentId="{67AE2834-9EF9-42C6-B2B4-E401296AA6DC}">
+  <threadedComment ref="E58" dT="2025-06-28T04:14:12.49" personId="{D1D6A3A2-6CE7-4FBF-87EB-8547FDD0351D}" id="{F3E531A3-E70D-4471-A7E8-64D03FF603CB}" parentId="{67AE2834-9EF9-42C6-B2B4-E401296AA6DC}">
     <text>Text
 Radio
 Checkbox
@@ -1922,29 +1907,50 @@
 Reset
 Submit</text>
   </threadedComment>
-  <threadedComment ref="B76" dT="2025-06-28T10:41:03.29" personId="{D1D6A3A2-6CE7-4FBF-87EB-8547FDD0351D}" id="{382B0446-FAF4-4DE5-926D-431412A6CEC7}">
+  <threadedComment ref="E59" dT="2025-06-28T10:41:03.29" personId="{D1D6A3A2-6CE7-4FBF-87EB-8547FDD0351D}" id="{382B0446-FAF4-4DE5-926D-431412A6CEC7}">
     <text>Name
 Size
 Multiple</text>
   </threadedComment>
-  <threadedComment ref="B77" dT="2025-06-28T10:41:37.78" personId="{D1D6A3A2-6CE7-4FBF-87EB-8547FDD0351D}" id="{093B413F-3B6C-4939-A9FD-A0881FF9A808}">
+  <threadedComment ref="E60" dT="2025-06-28T10:41:37.78" personId="{D1D6A3A2-6CE7-4FBF-87EB-8547FDD0351D}" id="{093B413F-3B6C-4939-A9FD-A0881FF9A808}">
     <text>Value
 Selected
 Disabled</text>
   </threadedComment>
-  <threadedComment ref="B78" dT="2025-06-28T10:44:24.96" personId="{D1D6A3A2-6CE7-4FBF-87EB-8547FDD0351D}" id="{41A1055F-F93D-4D98-9249-463639C336FA}">
+  <threadedComment ref="E61" dT="2025-06-28T10:44:24.96" personId="{D1D6A3A2-6CE7-4FBF-87EB-8547FDD0351D}" id="{41A1055F-F93D-4D98-9249-463639C336FA}">
     <text>Label</text>
   </threadedComment>
-  <threadedComment ref="B79" dT="2025-06-28T10:45:45.07" personId="{D1D6A3A2-6CE7-4FBF-87EB-8547FDD0351D}" id="{70A229A7-58A2-43DE-968F-8A03EE35CBE9}">
+  <threadedComment ref="E62" dT="2025-06-28T10:45:45.07" personId="{D1D6A3A2-6CE7-4FBF-87EB-8547FDD0351D}" id="{70A229A7-58A2-43DE-968F-8A03EE35CBE9}">
     <text>Name
 Cols
 Rows
 Wrap</text>
   </threadedComment>
-  <threadedComment ref="B79" dT="2025-06-28T10:45:58.09" personId="{D1D6A3A2-6CE7-4FBF-87EB-8547FDD0351D}" id="{99C8A377-6BBC-4DF0-9EC6-D685EAFB289C}" parentId="{70A229A7-58A2-43DE-968F-8A03EE35CBE9}">
+  <threadedComment ref="E62" dT="2025-06-28T10:45:58.09" personId="{D1D6A3A2-6CE7-4FBF-87EB-8547FDD0351D}" id="{99C8A377-6BBC-4DF0-9EC6-D685EAFB289C}" parentId="{70A229A7-58A2-43DE-968F-8A03EE35CBE9}">
     <text>Off
 Soft
 Hard</text>
+  </threadedComment>
+  <threadedComment ref="F73" dT="2025-07-04T12:18:18.54" personId="{D1D6A3A2-6CE7-4FBF-87EB-8547FDD0351D}" id="{E8C54A16-D8AC-4F7B-9A49-F69F77D1E23C}">
+    <text>내장 객체가 존재하는 동안 사용할 수 있는 속성의 영역(scope)</text>
+  </threadedComment>
+  <threadedComment ref="G74" dT="2025-07-04T14:27:23.02" personId="{D1D6A3A2-6CE7-4FBF-87EB-8547FDD0351D}" id="{6FFA4D75-9A03-4AA2-9D0E-400468ACBC71}">
+    <text>Forward 액션 태그와 구분</text>
+  </threadedComment>
+  <threadedComment ref="C89" dT="2025-07-01T14:38:36.76" personId="{D1D6A3A2-6CE7-4FBF-87EB-8547FDD0351D}" id="{8FD7E598-064D-4EA3-9C4F-B3CECCB9F8FD}">
+    <text>param-name
+param-value
+getServletConfig().getInitParameter(ParameterName)</text>
+  </threadedComment>
+  <threadedComment ref="B98" dT="2025-07-01T14:39:33.66" personId="{D1D6A3A2-6CE7-4FBF-87EB-8547FDD0351D}" id="{183CC5A9-AEAC-4E35-B825-AA7A4F3B5005}">
+    <text>request.getParameter()
+enum.hasMoreElements()
+enum.nextElement().toString
+request.isRequestedSessionIdValid()</text>
+  </threadedComment>
+  <threadedComment ref="C98" dT="2025-07-01T14:38:52.13" personId="{D1D6A3A2-6CE7-4FBF-87EB-8547FDD0351D}" id="{1F4C92F5-647F-4F62-8B0E-019613A2889B}">
+    <text>response.addCookie(Cookie)
+response.getCookies()</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1953,208 +1959,195 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD9756C-25D5-4BE5-9A7B-52E6EE334DC5}">
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
+    <sheetView tabSelected="1" topLeftCell="E70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="12.58203125" customWidth="1"/>
+    <col min="2" max="2" width="17.58203125" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
-    <col min="6" max="6" width="31.375" customWidth="1"/>
-    <col min="7" max="7" width="18.75" customWidth="1"/>
-    <col min="8" max="8" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="24.58203125" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="12.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2165,823 +2158,1009 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="H33" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" t="s">
         <v>55</v>
       </c>
-      <c r="C34" t="s">
+      <c r="G34" t="s">
         <v>56</v>
       </c>
-      <c r="D34" t="s">
+      <c r="H34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
         <v>57</v>
       </c>
-      <c r="E34" t="s">
+      <c r="C35" t="s">
         <v>58</v>
       </c>
-      <c r="F34" t="s">
+      <c r="D35" t="s">
         <v>59</v>
       </c>
-      <c r="G34" t="s">
+      <c r="E35" t="s">
         <v>60</v>
       </c>
-      <c r="H34" t="s">
+      <c r="F35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="D40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E41" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E48" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" t="s">
-        <v>65</v>
-      </c>
-      <c r="G35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H35" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E49" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" t="s">
-        <v>72</v>
-      </c>
-      <c r="H36" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E50" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" t="s">
-        <v>82</v>
-      </c>
-      <c r="F38" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" t="s">
-        <v>86</v>
-      </c>
-      <c r="F39" t="s">
-        <v>87</v>
-      </c>
-      <c r="G39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D40" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E41" t="s">
-        <v>92</v>
-      </c>
-      <c r="G41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E42" t="s">
-        <v>94</v>
-      </c>
-      <c r="G42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E43" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E44" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E45" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E46" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E47" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E51" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E48" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E52" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E49" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E50" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E51" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A56" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E52" t="s">
+      <c r="C56" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
+        <v>142</v>
+      </c>
       <c r="C57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B59" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C60" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C62" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C63" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C64" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" t="s">
+        <v>122</v>
+      </c>
+      <c r="E64" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C65" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C66" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C67" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C68" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C69" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C70" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A73" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B74" t="s">
+        <v>244</v>
+      </c>
+      <c r="C74" t="s">
+        <v>245</v>
+      </c>
+      <c r="D74" t="s">
+        <v>246</v>
+      </c>
+      <c r="E74" t="s">
+        <v>97</v>
+      </c>
+      <c r="F74" t="s">
+        <v>247</v>
+      </c>
+      <c r="G74" t="s">
+        <v>262</v>
+      </c>
+      <c r="H74" t="s">
+        <v>265</v>
+      </c>
+      <c r="I74" t="s">
+        <v>274</v>
+      </c>
+      <c r="J74" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B75" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" t="s">
+        <v>248</v>
+      </c>
+      <c r="D75" t="s">
+        <v>249</v>
+      </c>
+      <c r="E75" t="s">
+        <v>72</v>
+      </c>
+      <c r="F75" t="s">
+        <v>180</v>
+      </c>
+      <c r="H75" t="s">
+        <v>266</v>
+      </c>
+      <c r="I75" t="s">
+        <v>254</v>
+      </c>
+      <c r="J75" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" t="s">
+        <v>250</v>
+      </c>
+      <c r="D76" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" t="s">
+        <v>251</v>
+      </c>
+      <c r="F76" t="s">
+        <v>115</v>
+      </c>
+      <c r="H76" t="s">
+        <v>267</v>
+      </c>
+      <c r="I76" t="s">
+        <v>275</v>
+      </c>
+      <c r="J76" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" t="s">
+        <v>252</v>
+      </c>
+      <c r="D77" t="s">
+        <v>253</v>
+      </c>
+      <c r="E77" t="s">
+        <v>254</v>
+      </c>
+      <c r="F77" t="s">
+        <v>255</v>
+      </c>
+      <c r="H77" t="s">
+        <v>268</v>
+      </c>
+      <c r="I77" t="s">
+        <v>251</v>
+      </c>
+      <c r="J77" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D78" t="s">
+        <v>256</v>
+      </c>
+      <c r="E78" t="s">
+        <v>90</v>
+      </c>
+      <c r="H78" t="s">
+        <v>269</v>
+      </c>
+      <c r="I78" t="s">
+        <v>276</v>
+      </c>
+      <c r="J78" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D79" t="s">
+        <v>82</v>
+      </c>
+      <c r="E79" t="s">
+        <v>92</v>
+      </c>
+      <c r="H79" t="s">
+        <v>270</v>
+      </c>
+      <c r="I79" t="s">
+        <v>277</v>
+      </c>
+      <c r="J79" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E80" t="s">
+        <v>86</v>
+      </c>
+      <c r="H80" t="s">
+        <v>271</v>
+      </c>
+      <c r="J80" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="E81" t="s">
+        <v>257</v>
+      </c>
+      <c r="H81" t="s">
+        <v>272</v>
+      </c>
+      <c r="J81" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="E82" t="s">
+        <v>99</v>
+      </c>
+      <c r="H82" t="s">
+        <v>246</v>
+      </c>
+      <c r="J82" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="E83" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="E84" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B86" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B87" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B88" t="s">
+        <v>153</v>
+      </c>
+      <c r="C88" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B89" t="s">
+        <v>156</v>
+      </c>
+      <c r="C89" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B90" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B91" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B92" t="s">
+        <v>154</v>
+      </c>
+      <c r="C92" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B93" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B94" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B95" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D57" t="s">
-        <v>112</v>
-      </c>
-      <c r="E57" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C58" t="s">
-        <v>148</v>
-      </c>
-      <c r="D58" t="s">
-        <v>114</v>
-      </c>
-      <c r="E58" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D59" t="s">
-        <v>116</v>
-      </c>
-      <c r="E59" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D60" t="s">
-        <v>118</v>
-      </c>
-      <c r="E60" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D61" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D62" t="s">
-        <v>122</v>
-      </c>
-      <c r="E62" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D63" t="s">
-        <v>124</v>
-      </c>
-      <c r="E63" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D64" t="s">
-        <v>126</v>
-      </c>
-      <c r="E64" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D65" t="s">
-        <v>128</v>
-      </c>
-      <c r="E65" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D66" t="s">
-        <v>129</v>
-      </c>
-      <c r="E66" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D67" t="s">
-        <v>131</v>
-      </c>
-      <c r="E67" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D68" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D69" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D70" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D71" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B86" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
-        <v>155</v>
-      </c>
-      <c r="C87" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
-        <v>159</v>
-      </c>
-      <c r="C88" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
-        <v>163</v>
-      </c>
-      <c r="C89" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B90" s="2" t="s">
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B96" t="s">
         <v>151</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
-        <v>156</v>
-      </c>
-      <c r="C91" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
-        <v>160</v>
-      </c>
-      <c r="C92" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B95" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B98" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
+        <v>159</v>
+      </c>
+      <c r="C99" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B100" t="s">
+        <v>160</v>
+      </c>
+      <c r="C100" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B101" t="s">
+        <v>161</v>
+      </c>
+      <c r="C101" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B102" t="s">
+        <v>162</v>
+      </c>
+      <c r="C102" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B103" t="s">
+        <v>163</v>
+      </c>
+      <c r="C103" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B104" t="s">
+        <v>164</v>
+      </c>
+      <c r="C104" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B105" t="s">
+        <v>165</v>
+      </c>
+      <c r="C105" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B106" t="s">
+        <v>166</v>
+      </c>
+      <c r="C106" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B107" t="s">
         <v>167</v>
       </c>
-      <c r="C99" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B108" t="s">
         <v>168</v>
       </c>
-      <c r="C100" t="s">
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B109" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>185</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
-        <v>169</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="C113" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B114" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
-        <v>170</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="C114" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B115" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
-        <v>171</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="C115" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B116" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
-        <v>172</v>
-      </c>
-      <c r="C104" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B105" t="s">
-        <v>173</v>
-      </c>
-      <c r="C105" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B106" t="s">
-        <v>174</v>
-      </c>
-      <c r="C106" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B108" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="C116" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C117" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C118" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C119" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C120" t="s">
         <v>193</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C113" s="2" t="s">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C121" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
-        <v>190</v>
-      </c>
-      <c r="C114" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C122" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
-        <v>191</v>
-      </c>
-      <c r="C115" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C123" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B116" t="s">
-        <v>192</v>
-      </c>
-      <c r="C116" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>198</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C117" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C118" t="s">
+      <c r="C126" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C119" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C120" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C121" t="s">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B127" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C122" t="s">
+      <c r="C127" t="s">
+        <v>210</v>
+      </c>
+      <c r="D127" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B128" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C123" t="s">
+      <c r="C128" t="s">
+        <v>211</v>
+      </c>
+      <c r="D128" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B129" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="C129" t="s">
+        <v>212</v>
+      </c>
+      <c r="D129" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B130" t="s">
+        <v>205</v>
+      </c>
+      <c r="C130" t="s">
+        <v>213</v>
+      </c>
+      <c r="D130" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B131" t="s">
+        <v>216</v>
+      </c>
+      <c r="C131" t="s">
+        <v>118</v>
+      </c>
+      <c r="D131" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B132" t="s">
+        <v>217</v>
+      </c>
+      <c r="C132" t="s">
+        <v>214</v>
+      </c>
+      <c r="D132" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B133" t="s">
         <v>206</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C126" s="2" t="s">
+      <c r="D133" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B134" t="s">
+        <v>207</v>
+      </c>
+      <c r="D134" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B135" t="s">
         <v>208</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D135" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B136" t="s">
         <v>209</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
-        <v>210</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="D136" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B137" t="s">
+        <v>113</v>
+      </c>
+      <c r="D137" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B138" t="s">
+        <v>118</v>
+      </c>
+      <c r="D138" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B139" t="s">
+        <v>215</v>
+      </c>
+      <c r="D139" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B140" t="s">
         <v>218</v>
       </c>
-      <c r="D127" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B128" t="s">
-        <v>211</v>
-      </c>
-      <c r="C128" t="s">
-        <v>219</v>
-      </c>
-      <c r="D128" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B129" t="s">
-        <v>212</v>
-      </c>
-      <c r="C129" t="s">
-        <v>220</v>
-      </c>
-      <c r="D129" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B130" t="s">
-        <v>213</v>
-      </c>
-      <c r="C130" t="s">
-        <v>221</v>
-      </c>
-      <c r="D130" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B131" t="s">
-        <v>224</v>
-      </c>
-      <c r="C131" t="s">
-        <v>123</v>
-      </c>
-      <c r="D131" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B132" t="s">
-        <v>225</v>
-      </c>
-      <c r="C132" t="s">
-        <v>222</v>
-      </c>
-      <c r="D132" t="s">
+      <c r="D140" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B133" t="s">
-        <v>214</v>
-      </c>
-      <c r="D133" t="s">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D141" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B134" t="s">
-        <v>215</v>
-      </c>
-      <c r="D134" t="s">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D142" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B135" t="s">
-        <v>216</v>
-      </c>
-      <c r="D135" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B136" t="s">
-        <v>217</v>
-      </c>
-      <c r="D136" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B137" t="s">
-        <v>118</v>
-      </c>
-      <c r="D137" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B138" t="s">
-        <v>123</v>
-      </c>
-      <c r="D138" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B139" t="s">
-        <v>223</v>
-      </c>
-      <c r="D139" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B140" t="s">
-        <v>226</v>
-      </c>
-      <c r="D140" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D141" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D142" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/FrontStudy.xlsx
+++ b/FrontStudy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddd095a1e3fa6c8e/Desktop/jspLocal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{273AAA5E-55AF-4E41-911D-1F1D928167CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1A11BBB-5053-4064-A577-3FC7D21E4CAC}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{273AAA5E-55AF-4E41-911D-1F1D928167CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83626B48-BAF6-4E73-8E0E-4AA6DF5F1139}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{398A4277-38D9-496F-8D1A-C5B77BFD2B25}"/>
   </bookViews>
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="288">
   <si>
     <t>attribute</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1404,13 +1404,16 @@
   <si>
     <t>isAutoFlush()</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ddkk1120.tistory.com/93</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1433,12 +1436,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1957,10 +1954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD9756C-25D5-4BE5-9A7B-52E6EE334DC5}">
-  <dimension ref="A1:K142"/>
+  <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3163,6 +3160,11 @@
         <v>234</v>
       </c>
     </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>287</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
